--- a/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,175 +452,175 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>150</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45306</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>120</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45320</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45327</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45334</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45341</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45348</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>270</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45355</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45362</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45369</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>50</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45376</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45383</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>140</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45418</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45425</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45439</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45453</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45460</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45467</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45474</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45481</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45502</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45509</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B23" t="n">
         <v>40</v>
@@ -628,47 +628,47 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45537</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45544</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45558</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45565</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45579</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45614</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B29" t="n">
         <v>40</v>
@@ -676,9 +676,73 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45635</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
         <v>20</v>
       </c>
     </row>
@@ -693,7 +757,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,97 +779,137 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>570</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>140</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>140</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45474</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>140</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45505</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45536</v>
+        <v>45412.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>240</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45566</v>
+        <v>45443.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45597</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45627</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B13" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45626.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45657.99999999999</v>
+      </c>
+      <c r="B18" t="n">
         <v>20</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -773,7 +774,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -911,6 +912,677 @@
       </c>
       <c r="B18" t="n">
         <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>71</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.394083268828834</v>
+      </c>
+      <c r="D2" t="n">
+        <v>137.3584843487138</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>71</v>
+      </c>
+      <c r="C3" t="n">
+        <v>5.579220191794879</v>
+      </c>
+      <c r="D3" t="n">
+        <v>137.5540051080016</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>70</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.323532121150619</v>
+      </c>
+      <c r="D4" t="n">
+        <v>133.4184869762227</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>70</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6.325735021379826</v>
+      </c>
+      <c r="D5" t="n">
+        <v>133.5615776567447</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>70</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4.112812300605833</v>
+      </c>
+      <c r="D6" t="n">
+        <v>136.3005551660014</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>70</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5.655908364072148</v>
+      </c>
+      <c r="D7" t="n">
+        <v>131.2143770495787</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>67</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.048286003629377</v>
+      </c>
+      <c r="D8" t="n">
+        <v>133.1119854170524</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>66</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.05116035914404427</v>
+      </c>
+      <c r="D9" t="n">
+        <v>134.7870525981313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>66</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.512178767627892</v>
+      </c>
+      <c r="D10" t="n">
+        <v>136.6111250726028</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3960586357298023</v>
+      </c>
+      <c r="D11" t="n">
+        <v>131.0568320732737</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>65</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.095424265663088</v>
+      </c>
+      <c r="D12" t="n">
+        <v>134.2514203360018</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>6.410480254402464</v>
+      </c>
+      <c r="D13" t="n">
+        <v>131.3851619170956</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>65</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.954456017892618</v>
+      </c>
+      <c r="D14" t="n">
+        <v>131.7031150292175</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>65</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-2.621191052414386</v>
+      </c>
+      <c r="D15" t="n">
+        <v>129.3340317639649</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>65</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-1.485581562797301</v>
+      </c>
+      <c r="D16" t="n">
+        <v>126.7037212385848</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>65</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.1324027223177635</v>
+      </c>
+      <c r="D17" t="n">
+        <v>128.7799430288639</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>65</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.307039606626153</v>
+      </c>
+      <c r="D18" t="n">
+        <v>129.1681142707251</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>64</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.6109265303804738</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128.7506079544613</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>64</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-2.517151330767197</v>
+      </c>
+      <c r="D20" t="n">
+        <v>122.0209512113947</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>64</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.568365583703413</v>
+      </c>
+      <c r="D21" t="n">
+        <v>130.5921894900399</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>63</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.69291928220054</v>
+      </c>
+      <c r="D22" t="n">
+        <v>128.3322815210329</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>63</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.458553376453992</v>
+      </c>
+      <c r="D23" t="n">
+        <v>127.1609324403595</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>63</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.320568760931742</v>
+      </c>
+      <c r="D24" t="n">
+        <v>128.8440122335631</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>63</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-2.416404718735578</v>
+      </c>
+      <c r="D25" t="n">
+        <v>128.2946029772382</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>62</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-4.493820041253024</v>
+      </c>
+      <c r="D26" t="n">
+        <v>126.922277068105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>62</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-8.418140979424011</v>
+      </c>
+      <c r="D27" t="n">
+        <v>126.7751338482055</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45480.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>62</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.1433831920465645</v>
+      </c>
+      <c r="D28" t="n">
+        <v>123.1407905035524</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>62</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-5.334105357355641</v>
+      </c>
+      <c r="D29" t="n">
+        <v>124.2272931725005</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>61</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-4.246188613146841</v>
+      </c>
+      <c r="D30" t="n">
+        <v>129.2949762948291</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>61</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.242095224747846</v>
+      </c>
+      <c r="D31" t="n">
+        <v>127.4990614708564</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>61</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-4.267386988017133</v>
+      </c>
+      <c r="D32" t="n">
+        <v>125.3524820527388</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>61</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-2.924387409183655</v>
+      </c>
+      <c r="D33" t="n">
+        <v>127.8372586730408</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>60</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-11.99562975107325</v>
+      </c>
+      <c r="D34" t="n">
+        <v>125.3738176635839</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>60</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-9.087768371728973</v>
+      </c>
+      <c r="D35" t="n">
+        <v>123.8993424016081</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>60</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-8.532440226993318</v>
+      </c>
+      <c r="D36" t="n">
+        <v>120.4384538003725</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>59</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-8.031052848142775</v>
+      </c>
+      <c r="D37" t="n">
+        <v>119.5280446221731</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-8.841620622091972</v>
+      </c>
+      <c r="D38" t="n">
+        <v>121.7423975116792</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>58</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-5.622966964846689</v>
+      </c>
+      <c r="D39" t="n">
+        <v>122.2844336782388</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>58</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-5.966763747005868</v>
+      </c>
+      <c r="D40" t="n">
+        <v>123.7363605495982</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>58</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-7.163420104533773</v>
+      </c>
+      <c r="D41" t="n">
+        <v>119.7489654830106</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>58</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-5.521460138583962</v>
+      </c>
+      <c r="D42" t="n">
+        <v>119.9515847579159</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>58</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-5.773861640769336</v>
+      </c>
+      <c r="D43" t="n">
+        <v>125.5575111177249</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45683.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>58</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-5.050634307452874</v>
+      </c>
+      <c r="D44" t="n">
+        <v>121.7092409083438</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45690.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-11.30201849006116</v>
+      </c>
+      <c r="D45" t="n">
+        <v>123.3503977711724</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45697.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-4.117597907741912</v>
+      </c>
+      <c r="D46" t="n">
+        <v>125.1044180384825</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKFV65_po_data.xlsx
@@ -925,7 +925,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -944,16 +944,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -962,12 +952,6 @@
       <c r="B2" t="n">
         <v>71</v>
       </c>
-      <c r="C2" t="n">
-        <v>2.394083268828834</v>
-      </c>
-      <c r="D2" t="n">
-        <v>137.3584843487138</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -976,12 +960,6 @@
       <c r="B3" t="n">
         <v>71</v>
       </c>
-      <c r="C3" t="n">
-        <v>5.579220191794879</v>
-      </c>
-      <c r="D3" t="n">
-        <v>137.5540051080016</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -990,12 +968,6 @@
       <c r="B4" t="n">
         <v>70</v>
       </c>
-      <c r="C4" t="n">
-        <v>1.323532121150619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>133.4184869762227</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1004,12 +976,6 @@
       <c r="B5" t="n">
         <v>70</v>
       </c>
-      <c r="C5" t="n">
-        <v>6.325735021379826</v>
-      </c>
-      <c r="D5" t="n">
-        <v>133.5615776567447</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1018,12 +984,6 @@
       <c r="B6" t="n">
         <v>70</v>
       </c>
-      <c r="C6" t="n">
-        <v>4.112812300605833</v>
-      </c>
-      <c r="D6" t="n">
-        <v>136.3005551660014</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1032,12 +992,6 @@
       <c r="B7" t="n">
         <v>70</v>
       </c>
-      <c r="C7" t="n">
-        <v>5.655908364072148</v>
-      </c>
-      <c r="D7" t="n">
-        <v>131.2143770495787</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1046,12 +1000,6 @@
       <c r="B8" t="n">
         <v>67</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.048286003629377</v>
-      </c>
-      <c r="D8" t="n">
-        <v>133.1119854170524</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1060,12 +1008,6 @@
       <c r="B9" t="n">
         <v>66</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.05116035914404427</v>
-      </c>
-      <c r="D9" t="n">
-        <v>134.7870525981313</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1074,12 +1016,6 @@
       <c r="B10" t="n">
         <v>66</v>
       </c>
-      <c r="C10" t="n">
-        <v>3.512178767627892</v>
-      </c>
-      <c r="D10" t="n">
-        <v>136.6111250726028</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1088,12 +1024,6 @@
       <c r="B11" t="n">
         <v>66</v>
       </c>
-      <c r="C11" t="n">
-        <v>0.3960586357298023</v>
-      </c>
-      <c r="D11" t="n">
-        <v>131.0568320732737</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1102,12 +1032,6 @@
       <c r="B12" t="n">
         <v>65</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.095424265663088</v>
-      </c>
-      <c r="D12" t="n">
-        <v>134.2514203360018</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1116,12 +1040,6 @@
       <c r="B13" t="n">
         <v>65</v>
       </c>
-      <c r="C13" t="n">
-        <v>6.410480254402464</v>
-      </c>
-      <c r="D13" t="n">
-        <v>131.3851619170956</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1130,12 +1048,6 @@
       <c r="B14" t="n">
         <v>65</v>
       </c>
-      <c r="C14" t="n">
-        <v>2.954456017892618</v>
-      </c>
-      <c r="D14" t="n">
-        <v>131.7031150292175</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1144,12 +1056,6 @@
       <c r="B15" t="n">
         <v>65</v>
       </c>
-      <c r="C15" t="n">
-        <v>-2.621191052414386</v>
-      </c>
-      <c r="D15" t="n">
-        <v>129.3340317639649</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1158,12 +1064,6 @@
       <c r="B16" t="n">
         <v>65</v>
       </c>
-      <c r="C16" t="n">
-        <v>-1.485581562797301</v>
-      </c>
-      <c r="D16" t="n">
-        <v>126.7037212385848</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1172,12 +1072,6 @@
       <c r="B17" t="n">
         <v>65</v>
       </c>
-      <c r="C17" t="n">
-        <v>-0.1324027223177635</v>
-      </c>
-      <c r="D17" t="n">
-        <v>128.7799430288639</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1186,12 +1080,6 @@
       <c r="B18" t="n">
         <v>65</v>
       </c>
-      <c r="C18" t="n">
-        <v>-2.307039606626153</v>
-      </c>
-      <c r="D18" t="n">
-        <v>129.1681142707251</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1200,12 +1088,6 @@
       <c r="B19" t="n">
         <v>64</v>
       </c>
-      <c r="C19" t="n">
-        <v>-0.6109265303804738</v>
-      </c>
-      <c r="D19" t="n">
-        <v>128.7506079544613</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1214,12 +1096,6 @@
       <c r="B20" t="n">
         <v>64</v>
       </c>
-      <c r="C20" t="n">
-        <v>-2.517151330767197</v>
-      </c>
-      <c r="D20" t="n">
-        <v>122.0209512113947</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1228,12 +1104,6 @@
       <c r="B21" t="n">
         <v>64</v>
       </c>
-      <c r="C21" t="n">
-        <v>-1.568365583703413</v>
-      </c>
-      <c r="D21" t="n">
-        <v>130.5921894900399</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1242,12 +1112,6 @@
       <c r="B22" t="n">
         <v>63</v>
       </c>
-      <c r="C22" t="n">
-        <v>0.69291928220054</v>
-      </c>
-      <c r="D22" t="n">
-        <v>128.3322815210329</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1256,12 +1120,6 @@
       <c r="B23" t="n">
         <v>63</v>
       </c>
-      <c r="C23" t="n">
-        <v>-1.458553376453992</v>
-      </c>
-      <c r="D23" t="n">
-        <v>127.1609324403595</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1270,12 +1128,6 @@
       <c r="B24" t="n">
         <v>63</v>
       </c>
-      <c r="C24" t="n">
-        <v>-3.320568760931742</v>
-      </c>
-      <c r="D24" t="n">
-        <v>128.8440122335631</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1284,12 +1136,6 @@
       <c r="B25" t="n">
         <v>63</v>
       </c>
-      <c r="C25" t="n">
-        <v>-2.416404718735578</v>
-      </c>
-      <c r="D25" t="n">
-        <v>128.2946029772382</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1298,12 +1144,6 @@
       <c r="B26" t="n">
         <v>62</v>
       </c>
-      <c r="C26" t="n">
-        <v>-4.493820041253024</v>
-      </c>
-      <c r="D26" t="n">
-        <v>126.922277068105</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1312,12 +1152,6 @@
       <c r="B27" t="n">
         <v>62</v>
       </c>
-      <c r="C27" t="n">
-        <v>-8.418140979424011</v>
-      </c>
-      <c r="D27" t="n">
-        <v>126.7751338482055</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1326,12 +1160,6 @@
       <c r="B28" t="n">
         <v>62</v>
       </c>
-      <c r="C28" t="n">
-        <v>-0.1433831920465645</v>
-      </c>
-      <c r="D28" t="n">
-        <v>123.1407905035524</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1340,12 +1168,6 @@
       <c r="B29" t="n">
         <v>62</v>
       </c>
-      <c r="C29" t="n">
-        <v>-5.334105357355641</v>
-      </c>
-      <c r="D29" t="n">
-        <v>124.2272931725005</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1354,12 +1176,6 @@
       <c r="B30" t="n">
         <v>61</v>
       </c>
-      <c r="C30" t="n">
-        <v>-4.246188613146841</v>
-      </c>
-      <c r="D30" t="n">
-        <v>129.2949762948291</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1368,12 +1184,6 @@
       <c r="B31" t="n">
         <v>61</v>
       </c>
-      <c r="C31" t="n">
-        <v>-5.242095224747846</v>
-      </c>
-      <c r="D31" t="n">
-        <v>127.4990614708564</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1382,12 +1192,6 @@
       <c r="B32" t="n">
         <v>61</v>
       </c>
-      <c r="C32" t="n">
-        <v>-4.267386988017133</v>
-      </c>
-      <c r="D32" t="n">
-        <v>125.3524820527388</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1396,12 +1200,6 @@
       <c r="B33" t="n">
         <v>61</v>
       </c>
-      <c r="C33" t="n">
-        <v>-2.924387409183655</v>
-      </c>
-      <c r="D33" t="n">
-        <v>127.8372586730408</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1410,12 +1208,6 @@
       <c r="B34" t="n">
         <v>60</v>
       </c>
-      <c r="C34" t="n">
-        <v>-11.99562975107325</v>
-      </c>
-      <c r="D34" t="n">
-        <v>125.3738176635839</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1424,12 +1216,6 @@
       <c r="B35" t="n">
         <v>60</v>
       </c>
-      <c r="C35" t="n">
-        <v>-9.087768371728973</v>
-      </c>
-      <c r="D35" t="n">
-        <v>123.8993424016081</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1438,12 +1224,6 @@
       <c r="B36" t="n">
         <v>60</v>
       </c>
-      <c r="C36" t="n">
-        <v>-8.532440226993318</v>
-      </c>
-      <c r="D36" t="n">
-        <v>120.4384538003725</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1452,12 +1232,6 @@
       <c r="B37" t="n">
         <v>59</v>
       </c>
-      <c r="C37" t="n">
-        <v>-8.031052848142775</v>
-      </c>
-      <c r="D37" t="n">
-        <v>119.5280446221731</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1466,12 +1240,6 @@
       <c r="B38" t="n">
         <v>59</v>
       </c>
-      <c r="C38" t="n">
-        <v>-8.841620622091972</v>
-      </c>
-      <c r="D38" t="n">
-        <v>121.7423975116792</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1480,12 +1248,6 @@
       <c r="B39" t="n">
         <v>58</v>
       </c>
-      <c r="C39" t="n">
-        <v>-5.622966964846689</v>
-      </c>
-      <c r="D39" t="n">
-        <v>122.2844336782388</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1494,12 +1256,6 @@
       <c r="B40" t="n">
         <v>58</v>
       </c>
-      <c r="C40" t="n">
-        <v>-5.966763747005868</v>
-      </c>
-      <c r="D40" t="n">
-        <v>123.7363605495982</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1508,12 +1264,6 @@
       <c r="B41" t="n">
         <v>58</v>
       </c>
-      <c r="C41" t="n">
-        <v>-7.163420104533773</v>
-      </c>
-      <c r="D41" t="n">
-        <v>119.7489654830106</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1522,12 +1272,6 @@
       <c r="B42" t="n">
         <v>58</v>
       </c>
-      <c r="C42" t="n">
-        <v>-5.521460138583962</v>
-      </c>
-      <c r="D42" t="n">
-        <v>119.9515847579159</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1536,12 +1280,6 @@
       <c r="B43" t="n">
         <v>58</v>
       </c>
-      <c r="C43" t="n">
-        <v>-5.773861640769336</v>
-      </c>
-      <c r="D43" t="n">
-        <v>125.5575111177249</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1550,12 +1288,6 @@
       <c r="B44" t="n">
         <v>58</v>
       </c>
-      <c r="C44" t="n">
-        <v>-5.050634307452874</v>
-      </c>
-      <c r="D44" t="n">
-        <v>121.7092409083438</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1564,12 +1296,6 @@
       <c r="B45" t="n">
         <v>57</v>
       </c>
-      <c r="C45" t="n">
-        <v>-11.30201849006116</v>
-      </c>
-      <c r="D45" t="n">
-        <v>123.3503977711724</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1577,12 +1303,6 @@
       </c>
       <c r="B46" t="n">
         <v>57</v>
-      </c>
-      <c r="C46" t="n">
-        <v>-4.117597907741912</v>
-      </c>
-      <c r="D46" t="n">
-        <v>125.1044180384825</v>
       </c>
     </row>
   </sheetData>
